--- a/AD_Library/Excel/12_Module.xlsx
+++ b/AD_Library/Excel/12_Module.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Company\Library\AD_Library\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BCE2BC-42FC-4037-B72A-F11F129220BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CACFF8-BFC2-488C-819F-E78754D66B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,10 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <pane xSplit="5" ySplit="20" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AD_Library/Excel/12_Module.xlsx
+++ b/AD_Library/Excel/12_Module.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CACFF8-BFC2-488C-819F-E78754D66B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2168253-9E4D-46D8-87D1-75F183ED6096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -568,6 +571,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">

--- a/AD_Library/Excel/12_Module.xlsx
+++ b/AD_Library/Excel/12_Module.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2168253-9E4D-46D8-87D1-75F183ED6096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18B473-0AC5-4C4B-BD9E-DCAF7FA8CC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="20" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="20" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -499,8 +499,7 @@
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="100.58203125" style="4" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>

--- a/AD_Library/Excel/12_Module.xlsx
+++ b/AD_Library/Excel/12_Module.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18B473-0AC5-4C4B-BD9E-DCAF7FA8CC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5BF9FB-CFEE-4F34-B303-058D7E8D96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +198,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +488,10 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="20" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="20" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -493,7 +499,7 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
@@ -520,7 +526,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
